--- a/SampleData/DimBrowser.xlsx
+++ b/SampleData/DimBrowser.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>ID</t>
   </si>
@@ -23,124 +23,244 @@
     <t>BROWSER_NAME</t>
   </si>
   <si>
+    <t>Amazon Silk</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>Arora</t>
+  </si>
+  <si>
+    <t>Avant</t>
+  </si>
+  <si>
+    <t>Baidu Browser</t>
+  </si>
+  <si>
+    <t>Baidu Explorer</t>
+  </si>
+  <si>
+    <t>BlackBerry</t>
+  </si>
+  <si>
+    <t>BlackBerry WebKit</t>
+  </si>
+  <si>
+    <t>Bon Echo</t>
+  </si>
+  <si>
+    <t>Camino</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Chrome Frame</t>
+  </si>
+  <si>
+    <t>Chrome Mobile</t>
+  </si>
+  <si>
+    <t>Chrome Mobile iOS</t>
+  </si>
+  <si>
+    <t>Chromium</t>
+  </si>
+  <si>
+    <t>Comodo Dragon</t>
+  </si>
+  <si>
+    <t>Conkeror</t>
+  </si>
+  <si>
+    <t>Crazy Browser</t>
+  </si>
+  <si>
+    <t>Dolfin</t>
+  </si>
+  <si>
+    <t>Epiphany</t>
+  </si>
+  <si>
+    <t>Firefox</t>
+  </si>
+  <si>
+    <t>Firefox (Minefield)</t>
+  </si>
+  <si>
+    <t>Firefox (Namoroka)</t>
+  </si>
+  <si>
+    <t>Firefox (Shiretoko)</t>
+  </si>
+  <si>
+    <t>Firefox Alpha</t>
+  </si>
+  <si>
+    <t>Firefox Beta</t>
+  </si>
+  <si>
+    <t>Firefox Mobile</t>
+  </si>
+  <si>
+    <t>Flock</t>
+  </si>
+  <si>
+    <t>Googlebot</t>
+  </si>
+  <si>
+    <t>GranParadiso</t>
+  </si>
+  <si>
+    <t>Iceweasel</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>IE Large Screen</t>
+  </si>
+  <si>
+    <t>IE Mobile</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>Jasmine</t>
+  </si>
+  <si>
+    <t>K-Meleon</t>
+  </si>
+  <si>
+    <t>Kindle</t>
+  </si>
+  <si>
+    <t>LuaKit</t>
+  </si>
+  <si>
+    <t>Lunascape</t>
+  </si>
+  <si>
+    <t>Maemo Browser</t>
+  </si>
+  <si>
+    <t>Mail.ru Chromium Browser</t>
+  </si>
+  <si>
+    <t>Maxthon</t>
+  </si>
+  <si>
+    <t>Midori</t>
+  </si>
+  <si>
+    <t>Mobile Safari</t>
+  </si>
+  <si>
+    <t>MozillaDeveloperPreview</t>
+  </si>
+  <si>
+    <t>NetFront</t>
+  </si>
+  <si>
+    <t>NetFront NX</t>
+  </si>
+  <si>
+    <t>Netscape</t>
+  </si>
+  <si>
+    <t>Nokia</t>
+  </si>
+  <si>
+    <t>Nokia Browser</t>
+  </si>
+  <si>
+    <t>Nokia OSS Browser</t>
+  </si>
+  <si>
+    <t>Nokia Services (WAP) Browser</t>
+  </si>
+  <si>
+    <t>Obigo</t>
+  </si>
+  <si>
+    <t>Openwave</t>
+  </si>
+  <si>
+    <t>Opera</t>
+  </si>
+  <si>
+    <t>Opera Mini</t>
+  </si>
+  <si>
+    <t>Opera Mobile</t>
+  </si>
+  <si>
+    <t>Opera Tablet</t>
+  </si>
+  <si>
+    <t>Orca</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Ovi Browser</t>
+  </si>
+  <si>
+    <t>Pale Moon (Firefox Variant)</t>
+  </si>
+  <si>
+    <t>Phantom Browser</t>
+  </si>
+  <si>
+    <t>QQ Browser</t>
+  </si>
+  <si>
+    <t>QtWeb</t>
+  </si>
+  <si>
+    <t>RockMelt</t>
+  </si>
+  <si>
+    <t>Safari</t>
+  </si>
+  <si>
     <t>SeaMonkey</t>
   </si>
   <si>
-    <t>Chromium</t>
+    <t>Skyfire</t>
+  </si>
+  <si>
+    <t>Sleipnir</t>
   </si>
   <si>
     <t>Sogou Explorer</t>
   </si>
   <si>
+    <t>Teleca Browser</t>
+  </si>
+  <si>
+    <t>UC Browser</t>
+  </si>
+  <si>
+    <t>UP.Browser</t>
+  </si>
+  <si>
+    <t>Vodafone</t>
+  </si>
+  <si>
+    <t>WebKit Nightly</t>
+  </si>
+  <si>
     <t>webOS Browser</t>
   </si>
   <si>
-    <t>IE</t>
-  </si>
-  <si>
-    <t>Firefox Beta</t>
-  </si>
-  <si>
-    <t>Chrome Frame</t>
-  </si>
-  <si>
-    <t>Iron</t>
-  </si>
-  <si>
-    <t>Pale Moon (Firefox Variant)</t>
-  </si>
-  <si>
-    <t>Maxthon</t>
-  </si>
-  <si>
-    <t>Openwave</t>
-  </si>
-  <si>
-    <t>Firefox</t>
-  </si>
-  <si>
-    <t>Firefox Mobile</t>
-  </si>
-  <si>
-    <t>Opera Mobile</t>
-  </si>
-  <si>
-    <t>BlackBerry</t>
-  </si>
-  <si>
-    <t>Amazon Silk</t>
-  </si>
-  <si>
-    <t>NetFront</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Dolfin</t>
-  </si>
-  <si>
-    <t>Teleca Browser</t>
-  </si>
-  <si>
-    <t>Firefox Alpha</t>
-  </si>
-  <si>
-    <t>Jasmine</t>
-  </si>
-  <si>
-    <t>Chrome Mobile</t>
-  </si>
-  <si>
-    <t>Ovi Browser</t>
-  </si>
-  <si>
-    <t>Opera</t>
-  </si>
-  <si>
-    <t>Opera Tablet</t>
-  </si>
-  <si>
-    <t>Nokia Services (WAP) Browser</t>
-  </si>
-  <si>
-    <t>Mobile Safari</t>
-  </si>
-  <si>
-    <t>Android</t>
-  </si>
-  <si>
-    <t>WebKit Nightly</t>
-  </si>
-  <si>
-    <t>IE Mobile</t>
-  </si>
-  <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>Safari</t>
+    <t>WeTab</t>
   </si>
   <si>
     <t>Yandex Browser</t>
-  </si>
-  <si>
-    <t>Flock</t>
-  </si>
-  <si>
-    <t>UC Browser</t>
-  </si>
-  <si>
-    <t>Opera Mini</t>
-  </si>
-  <si>
-    <t>Chrome Mobile iOS</t>
-  </si>
-  <si>
-    <t>BlackBerry WebKit</t>
-  </si>
-  <si>
-    <t>Nokia Browser</t>
   </si>
 </sst>
 </file>
@@ -245,10 +365,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -268,7 +388,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>2</v>
@@ -276,7 +396,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>3</v>
@@ -284,7 +404,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>4</v>
@@ -292,7 +412,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>5</v>
@@ -300,7 +420,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>6</v>
@@ -308,7 +428,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>7</v>
@@ -316,7 +436,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>8</v>
@@ -324,7 +444,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
@@ -332,7 +452,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>10</v>
@@ -340,7 +460,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>11</v>
@@ -348,7 +468,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>12</v>
@@ -356,7 +476,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>13</v>
@@ -364,7 +484,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>14</v>
@@ -372,7 +492,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>15</v>
@@ -380,7 +500,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>16</v>
@@ -388,7 +508,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>17</v>
@@ -396,7 +516,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>18</v>
@@ -404,7 +524,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>19</v>
@@ -420,7 +540,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>21</v>
@@ -428,7 +548,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>22</v>
@@ -436,7 +556,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>23</v>
@@ -444,7 +564,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>24</v>
@@ -452,7 +572,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>25</v>
@@ -460,7 +580,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>26</v>
@@ -468,7 +588,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>27</v>
@@ -476,7 +596,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>28</v>
@@ -484,7 +604,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>29</v>
@@ -492,7 +612,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>30</v>
@@ -500,7 +620,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>31</v>
@@ -508,7 +628,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>32</v>
@@ -516,7 +636,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>33</v>
@@ -524,7 +644,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>34</v>
@@ -532,7 +652,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>35</v>
@@ -540,7 +660,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>36</v>
@@ -548,7 +668,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="n">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>37</v>
@@ -556,7 +676,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>38</v>
@@ -564,7 +684,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>39</v>
@@ -572,7 +692,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>40</v>
@@ -580,10 +700,330 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
